--- a/static/data/xlsx/MST Edges.xlsx
+++ b/static/data/xlsx/MST Edges.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonghkim/dev_jhk/Research/Job_Inequality/job-automation-index-web/static/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3996963-48B9-2C41-B04F-3BC26E837B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5A517F-BFE6-7E46-9CF2-F232DB28AC82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8F0FFB1A-5238-A245-8ED4-3AF814DCD3A4}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MST Edges" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -66,6 +61,9 @@
     <t>Reading Comprehension</t>
   </si>
   <si>
+    <t>Written Expression</t>
+  </si>
+  <si>
     <t>Number Facility</t>
   </si>
   <si>
@@ -75,18 +73,18 @@
     <t>Electronic Mail</t>
   </si>
   <si>
+    <t>Structured versus Unstructured Work</t>
+  </si>
+  <si>
     <t>Indoors, Environmentally Controlled</t>
   </si>
   <si>
+    <t>Spend Time Sitting</t>
+  </si>
+  <si>
     <t>Telephone</t>
   </si>
   <si>
-    <t>Spend Time Sitting</t>
-  </si>
-  <si>
-    <t>Written Expression</t>
-  </si>
-  <si>
     <t>Interacting With Computers</t>
   </si>
   <si>
@@ -120,451 +118,448 @@
     <t>Guiding, Directing, and Motivating Subordinates</t>
   </si>
   <si>
+    <t>Coaching and Developing Others</t>
+  </si>
+  <si>
     <t>Staffing Organizational Units</t>
   </si>
   <si>
     <t>Coordinating the Work and Activities of Others</t>
   </si>
   <si>
+    <t>Extremely Bright or Inadequate Lighting</t>
+  </si>
+  <si>
+    <t>Active Learning</t>
+  </si>
+  <si>
+    <t>Critical Thinking</t>
+  </si>
+  <si>
+    <t>Fluency of Ideas</t>
+  </si>
+  <si>
+    <t>Learning Strategies</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Perceptual Speed</t>
+  </si>
+  <si>
+    <t>Operation Monitoring</t>
+  </si>
+  <si>
+    <t>Selective Attention</t>
+  </si>
+  <si>
+    <t>Flexibility of Closure</t>
+  </si>
+  <si>
+    <t>Spatial Orientation</t>
+  </si>
+  <si>
+    <t>Peripheral Vision</t>
+  </si>
+  <si>
+    <t>Consequence of Error</t>
+  </si>
+  <si>
+    <t>Inspecting Equipment, Structures, or Material</t>
+  </si>
+  <si>
+    <t>Controlling Machines and Processes</t>
+  </si>
+  <si>
+    <t>Monitor Processes, Materials, or Surroundings</t>
+  </si>
+  <si>
+    <t>Response Orientation</t>
+  </si>
+  <si>
+    <t>Public Speaking</t>
+  </si>
+  <si>
+    <t>Memorization</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Instructing</t>
+  </si>
+  <si>
+    <t>Getting Information</t>
+  </si>
+  <si>
+    <t>Updating and Using Relevant Knowledge</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Repairing</t>
+  </si>
+  <si>
+    <t>Very Hot or Cold Temperatures</t>
+  </si>
+  <si>
+    <t>Exposed to Minor Burns, Cuts, Bites, or Stings</t>
+  </si>
+  <si>
+    <t>Wear Common Protective or Safety Equipment such as Safety Shoes, Glasses, Gloves, Hearing Protection, Hard Hats, or Life Jackets</t>
+  </si>
+  <si>
+    <t>Glare Sensitivity</t>
+  </si>
+  <si>
+    <t>Night Vision</t>
+  </si>
+  <si>
+    <t>Quality Control Analysis</t>
+  </si>
+  <si>
+    <t>Deal With Physically Aggressive People</t>
+  </si>
+  <si>
+    <t>Deal With Unpleasant or Angry People</t>
+  </si>
+  <si>
+    <t>Assisting and Caring for Others</t>
+  </si>
+  <si>
+    <t>Systems Analysis</t>
+  </si>
+  <si>
+    <t>Active Listening</t>
+  </si>
+  <si>
+    <t>Exposed to Disease or Infections</t>
+  </si>
+  <si>
+    <t>Physical Proximity</t>
+  </si>
+  <si>
+    <t>Exposed to Radiation</t>
+  </si>
+  <si>
+    <t>Trunk Strength</t>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>Spend Time Standing</t>
+  </si>
+  <si>
+    <t>Dynamic Flexibility</t>
+  </si>
+  <si>
+    <t>Dynamic Strength</t>
+  </si>
+  <si>
+    <t>Communicating with Persons Outside Organization</t>
+  </si>
+  <si>
+    <t>Originality</t>
+  </si>
+  <si>
+    <t>Thinking Creatively</t>
+  </si>
+  <si>
+    <t>Gross Body Equilibrium</t>
+  </si>
+  <si>
+    <t>Spend Time Keeping or Regaining Balance</t>
+  </si>
+  <si>
+    <t>Gross Body Coordination</t>
+  </si>
+  <si>
+    <t>Evaluating Information to Determine Compliance with Standards</t>
+  </si>
+  <si>
+    <t>Making Decisions and Solving Problems</t>
+  </si>
+  <si>
+    <t>Hearing Sensitivity</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>Operation and Control</t>
+  </si>
+  <si>
+    <t>Complex Problem Solving</t>
+  </si>
+  <si>
+    <t>Provide Consultation and Advice to Others</t>
+  </si>
+  <si>
+    <t>Level of Competition</t>
+  </si>
+  <si>
+    <t>Estimating the Quantifiable Characteristics of Products, Events, or Information</t>
+  </si>
+  <si>
+    <t>Developing and Building Teams</t>
+  </si>
+  <si>
+    <t>Communicating with Supervisors, Peers, or Subordinates</t>
+  </si>
+  <si>
+    <t>Management of Financial Resources</t>
+  </si>
+  <si>
+    <t>Management of Material Resources</t>
+  </si>
+  <si>
+    <t>Speech Recognition</t>
+  </si>
+  <si>
+    <t>Speech Clarity</t>
+  </si>
+  <si>
+    <t>Spend Time Bending or Twisting the Body</t>
+  </si>
+  <si>
+    <t>Extent Flexibility</t>
+  </si>
+  <si>
+    <t>Spend Time Kneeling, Crouching, Stooping, or Crawling</t>
+  </si>
+  <si>
+    <t>Developing Objectives and Strategies</t>
+  </si>
+  <si>
+    <t>In an Enclosed Vehicle or Equipment</t>
+  </si>
+  <si>
+    <t>Outdoors, Exposed to Weather</t>
+  </si>
+  <si>
+    <t>Processing Information</t>
+  </si>
+  <si>
+    <t>Analyzing Data or Information</t>
+  </si>
+  <si>
+    <t>Documenting/Recording Information</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Oral Expression</t>
+  </si>
+  <si>
+    <t>Equipment Maintenance</t>
+  </si>
+  <si>
+    <t>Repairing and Maintaining Mechanical Equipment</t>
+  </si>
+  <si>
+    <t>Auditory Attention</t>
+  </si>
+  <si>
+    <t>Training and Teaching Others</t>
+  </si>
+  <si>
+    <t>Multilimb Coordination</t>
+  </si>
+  <si>
+    <t>Spend Time Using Your Hands to Handle, Control, or Feel Objects, Tools, or Controls</t>
+  </si>
+  <si>
+    <t>Finger Dexterity</t>
+  </si>
+  <si>
+    <t>Contact With Others</t>
+  </si>
+  <si>
+    <t>Deal With External Customers</t>
+  </si>
+  <si>
+    <t>Importance of Being Exact or Accurate</t>
+  </si>
+  <si>
+    <t>Near Vision</t>
+  </si>
+  <si>
+    <t>Importance of Repeating Same Tasks</t>
+  </si>
+  <si>
+    <t>Time Pressure</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Social Perceptiveness</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>Service Orientation</t>
+  </si>
+  <si>
+    <t>Coordination</t>
+  </si>
+  <si>
+    <t>Establishing and Maintaining Interpersonal Relationships</t>
+  </si>
+  <si>
+    <t>Coordinate or Lead Others</t>
+  </si>
+  <si>
+    <t>Responsibility for Outcomes and Results</t>
+  </si>
+  <si>
+    <t>Work With Work Group or Team</t>
+  </si>
+  <si>
+    <t>Spend Time Walking and Running</t>
+  </si>
+  <si>
+    <t>Reaction Time</t>
+  </si>
+  <si>
+    <t>Performing Administrative Activities</t>
+  </si>
+  <si>
+    <t>Time Management</t>
+  </si>
+  <si>
+    <t>Management of Personnel Resources</t>
+  </si>
+  <si>
+    <t>Oral Comprehension</t>
+  </si>
+  <si>
+    <t>Responsible for Others' Health and Safety</t>
+  </si>
+  <si>
+    <t>Judgment and Decision Making</t>
+  </si>
+  <si>
+    <t>Resolving Conflicts and Negotiating with Others</t>
+  </si>
+  <si>
+    <t>Negotiation</t>
+  </si>
+  <si>
+    <t>Frequency of Conflict Situations</t>
+  </si>
+  <si>
+    <t>Exposed to Hazardous Equipment</t>
+  </si>
+  <si>
+    <t>Spend Time Making Repetitive Motions</t>
+  </si>
+  <si>
+    <t>Speed of Limb Movement</t>
+  </si>
+  <si>
+    <t>Explosive Strength</t>
+  </si>
+  <si>
+    <t>Static Strength</t>
+  </si>
+  <si>
+    <t>Equipment Selection</t>
+  </si>
+  <si>
+    <t>Cramped Work Space, Awkward Positions</t>
+  </si>
+  <si>
+    <t>Selling or Influencing Others</t>
+  </si>
+  <si>
+    <t>Frequency of Decision Making</t>
+  </si>
+  <si>
+    <t>Impact of Decisions on Co-workers or Company Results</t>
+  </si>
+  <si>
+    <t>Exposed to Contaminants</t>
+  </si>
+  <si>
+    <t>Sounds, Noise Levels Are Distracting or Uncomfortable</t>
+  </si>
+  <si>
+    <t>Exposed to Hazardous Conditions</t>
+  </si>
+  <si>
+    <t>Monitoring and Controlling Resources</t>
+  </si>
+  <si>
+    <t>Indoors, Not Environmentally Controlled</t>
+  </si>
+  <si>
+    <t>Outdoors, Under Cover</t>
+  </si>
+  <si>
+    <t>Wear Specialized Protective or Safety Equipment such as Breathing Apparatus, Safety Harness, Full Protection Suits, or Radiation Protection</t>
+  </si>
+  <si>
     <t>Judging the Qualities of Things, Services, or People</t>
   </si>
   <si>
-    <t>Coaching and Developing Others</t>
-  </si>
-  <si>
-    <t>Extremely Bright or Inadequate Lighting</t>
-  </si>
-  <si>
-    <t>Active Learning</t>
-  </si>
-  <si>
-    <t>Critical Thinking</t>
+    <t>Identifying Objects, Actions, and Events</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Inductive Reasoning</t>
+  </si>
+  <si>
+    <t>Interpreting the Meaning of Information for Others</t>
+  </si>
+  <si>
+    <t>Performing for or Working Directly with the Public</t>
   </si>
   <si>
     <t>Freedom to Make Decisions</t>
   </si>
   <si>
-    <t>Fluency of Ideas</t>
-  </si>
-  <si>
-    <t>Learning Strategies</t>
-  </si>
-  <si>
-    <t>Writing</t>
-  </si>
-  <si>
-    <t>Perceptual Speed</t>
-  </si>
-  <si>
-    <t>Operation Monitoring</t>
-  </si>
-  <si>
-    <t>Selective Attention</t>
-  </si>
-  <si>
-    <t>Flexibility of Closure</t>
-  </si>
-  <si>
-    <t>Spatial Orientation</t>
-  </si>
-  <si>
-    <t>Peripheral Vision</t>
-  </si>
-  <si>
-    <t>Consequence of Error</t>
-  </si>
-  <si>
-    <t>Inspecting Equipment, Structures, or Material</t>
-  </si>
-  <si>
-    <t>Controlling Machines and Processes</t>
-  </si>
-  <si>
-    <t>Reaction Time</t>
-  </si>
-  <si>
-    <t>Public Speaking</t>
-  </si>
-  <si>
-    <t>Memorization</t>
-  </si>
-  <si>
-    <t>Instructing</t>
-  </si>
-  <si>
-    <t>Getting Information</t>
-  </si>
-  <si>
-    <t>Updating and Using Relevant Knowledge</t>
-  </si>
-  <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>Repairing</t>
-  </si>
-  <si>
-    <t>Very Hot or Cold Temperatures</t>
-  </si>
-  <si>
-    <t>Exposed to Minor Burns, Cuts, Bites, or Stings</t>
-  </si>
-  <si>
-    <t>Wear Common Protective or Safety Equipment such as Safety Shoes, Glasses, Gloves, Hearing Protection, Hard Hats, or Life Jackets</t>
-  </si>
-  <si>
-    <t>Glare Sensitivity</t>
-  </si>
-  <si>
-    <t>Night Vision</t>
-  </si>
-  <si>
-    <t>Response Orientation</t>
-  </si>
-  <si>
-    <t>Quality Control Analysis</t>
-  </si>
-  <si>
-    <t>Deal With Physically Aggressive People</t>
-  </si>
-  <si>
-    <t>Deal With Unpleasant or Angry People</t>
-  </si>
-  <si>
-    <t>Assisting and Caring for Others</t>
-  </si>
-  <si>
-    <t>Systems Analysis</t>
-  </si>
-  <si>
-    <t>Active Listening</t>
-  </si>
-  <si>
-    <t>Cramped Work Space, Awkward Positions</t>
-  </si>
-  <si>
-    <t>Exposed to Disease or Infections</t>
-  </si>
-  <si>
-    <t>Physical Proximity</t>
-  </si>
-  <si>
-    <t>Exposed to Radiation</t>
-  </si>
-  <si>
-    <t>Trunk Strength</t>
-  </si>
-  <si>
-    <t>Stamina</t>
-  </si>
-  <si>
-    <t>Spend Time Standing</t>
-  </si>
-  <si>
-    <t>Dynamic Flexibility</t>
-  </si>
-  <si>
-    <t>Dynamic Strength</t>
-  </si>
-  <si>
-    <t>Communicating with Persons Outside Organization</t>
-  </si>
-  <si>
-    <t>Originality</t>
-  </si>
-  <si>
-    <t>Thinking Creatively</t>
-  </si>
-  <si>
-    <t>Gross Body Equilibrium</t>
-  </si>
-  <si>
-    <t>Explosive Strength</t>
-  </si>
-  <si>
-    <t>Gross Body Coordination</t>
-  </si>
-  <si>
-    <t>Evaluating Information to Determine Compliance with Standards</t>
-  </si>
-  <si>
-    <t>Making Decisions and Solving Problems</t>
-  </si>
-  <si>
-    <t>Hearing Sensitivity</t>
-  </si>
-  <si>
-    <t>Troubleshooting</t>
-  </si>
-  <si>
-    <t>Operation and Control</t>
-  </si>
-  <si>
-    <t>Complex Problem Solving</t>
-  </si>
-  <si>
-    <t>Provide Consultation and Advice to Others</t>
-  </si>
-  <si>
-    <t>Level of Competition</t>
-  </si>
-  <si>
-    <t>Estimating the Quantifiable Characteristics of Products, Events, or Information</t>
-  </si>
-  <si>
-    <t>Monitor Processes, Materials, or Surroundings</t>
-  </si>
-  <si>
-    <t>Developing and Building Teams</t>
-  </si>
-  <si>
-    <t>Communicating with Supervisors, Peers, or Subordinates</t>
-  </si>
-  <si>
-    <t>Coordination</t>
-  </si>
-  <si>
-    <t>Management of Financial Resources</t>
-  </si>
-  <si>
-    <t>Management of Material Resources</t>
-  </si>
-  <si>
-    <t>Speech Recognition</t>
-  </si>
-  <si>
-    <t>Speech Clarity</t>
-  </si>
-  <si>
-    <t>Spend Time Bending or Twisting the Body</t>
-  </si>
-  <si>
-    <t>Spend Time Keeping or Regaining Balance</t>
-  </si>
-  <si>
-    <t>Extent Flexibility</t>
-  </si>
-  <si>
-    <t>Spend Time Kneeling, Crouching, Stooping, or Crawling</t>
-  </si>
-  <si>
-    <t>Developing Objectives and Strategies</t>
-  </si>
-  <si>
-    <t>In an Enclosed Vehicle or Equipment</t>
-  </si>
-  <si>
-    <t>Outdoors, Exposed to Weather</t>
-  </si>
-  <si>
-    <t>Processing Information</t>
-  </si>
-  <si>
-    <t>Analyzing Data or Information</t>
-  </si>
-  <si>
-    <t>Documenting/Recording Information</t>
-  </si>
-  <si>
-    <t>Speaking</t>
-  </si>
-  <si>
-    <t>Oral Expression</t>
-  </si>
-  <si>
-    <t>Equipment Maintenance</t>
-  </si>
-  <si>
-    <t>Repairing and Maintaining Mechanical Equipment</t>
-  </si>
-  <si>
-    <t>Auditory Attention</t>
-  </si>
-  <si>
-    <t>Monitoring</t>
-  </si>
-  <si>
-    <t>Multilimb Coordination</t>
-  </si>
-  <si>
-    <t>Spend Time Using Your Hands to Handle, Control, or Feel Objects, Tools, or Controls</t>
-  </si>
-  <si>
-    <t>Finger Dexterity</t>
-  </si>
-  <si>
-    <t>Contact With Others</t>
-  </si>
-  <si>
-    <t>Deal With External Customers</t>
-  </si>
-  <si>
-    <t>Importance of Being Exact or Accurate</t>
-  </si>
-  <si>
-    <t>Near Vision</t>
-  </si>
-  <si>
-    <t>Importance of Repeating Same Tasks</t>
-  </si>
-  <si>
-    <t>Time Pressure</t>
-  </si>
-  <si>
-    <t>Programming</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>Identifying Objects, Actions, and Events</t>
-  </si>
-  <si>
-    <t>Social Perceptiveness</t>
-  </si>
-  <si>
-    <t>Persuasion</t>
-  </si>
-  <si>
-    <t>Service Orientation</t>
-  </si>
-  <si>
-    <t>Establishing and Maintaining Interpersonal Relationships</t>
-  </si>
-  <si>
-    <t>Coordinate or Lead Others</t>
-  </si>
-  <si>
-    <t>Responsibility for Outcomes and Results</t>
-  </si>
-  <si>
-    <t>Work With Work Group or Team</t>
-  </si>
-  <si>
-    <t>Spend Time Walking and Running</t>
+    <t>Time Sharing</t>
+  </si>
+  <si>
+    <t>Problem Sensitivity</t>
+  </si>
+  <si>
+    <t>Speed of Closure</t>
+  </si>
+  <si>
+    <t>Face-to-Face Discussions</t>
+  </si>
+  <si>
+    <t>Information Ordering</t>
+  </si>
+  <si>
+    <t>Deductive Reasoning</t>
+  </si>
+  <si>
+    <t>Category Flexibility</t>
   </si>
   <si>
     <t>Rate Control</t>
   </si>
   <si>
-    <t>Performing Administrative Activities</t>
-  </si>
-  <si>
-    <t>Time Management</t>
-  </si>
-  <si>
-    <t>Management of Personnel Resources</t>
-  </si>
-  <si>
-    <t>Oral Comprehension</t>
-  </si>
-  <si>
-    <t>Responsible for Others' Health and Safety</t>
-  </si>
-  <si>
-    <t>Judgment and Decision Making</t>
-  </si>
-  <si>
-    <t>Resolving Conflicts and Negotiating with Others</t>
-  </si>
-  <si>
-    <t>Negotiation</t>
-  </si>
-  <si>
-    <t>Frequency of Conflict Situations</t>
-  </si>
-  <si>
-    <t>Performing for or Working Directly with the Public</t>
-  </si>
-  <si>
-    <t>Spend Time Making Repetitive Motions</t>
-  </si>
-  <si>
-    <t>Interpreting the Meaning of Information for Others</t>
-  </si>
-  <si>
-    <t>Speed of Limb Movement</t>
-  </si>
-  <si>
-    <t>Static Strength</t>
-  </si>
-  <si>
-    <t>Equipment Selection</t>
-  </si>
-  <si>
-    <t>Selling or Influencing Others</t>
-  </si>
-  <si>
-    <t>Frequency of Decision Making</t>
-  </si>
-  <si>
-    <t>Impact of Decisions on Co-workers or Company Results</t>
-  </si>
-  <si>
-    <t>Exposed to Contaminants</t>
-  </si>
-  <si>
-    <t>Exposed to Hazardous Conditions</t>
-  </si>
-  <si>
-    <t>Monitoring and Controlling Resources</t>
-  </si>
-  <si>
-    <t>Indoors, Not Environmentally Controlled</t>
-  </si>
-  <si>
-    <t>Outdoors, Under Cover</t>
-  </si>
-  <si>
-    <t>Wear Specialized Protective or Safety Equipment such as Breathing Apparatus, Safety Harness, Full Protection Suits, or Radiation Protection</t>
-  </si>
-  <si>
-    <t>Training and Teaching Others</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Inductive Reasoning</t>
-  </si>
-  <si>
-    <t>Structured versus Unstructured Work</t>
+    <t>Handling and Moving Objects</t>
+  </si>
+  <si>
+    <t>Performing General Physical Activities</t>
   </si>
   <si>
     <t>Pace Determined by Speed of Equipment</t>
-  </si>
-  <si>
-    <t>Exposed to Hazardous Equipment</t>
-  </si>
-  <si>
-    <t>Time Sharing</t>
-  </si>
-  <si>
-    <t>Problem Sensitivity</t>
-  </si>
-  <si>
-    <t>Speed of Closure</t>
-  </si>
-  <si>
-    <t>Face-to-Face Discussions</t>
-  </si>
-  <si>
-    <t>Information Ordering</t>
-  </si>
-  <si>
-    <t>Deductive Reasoning</t>
-  </si>
-  <si>
-    <t>Category Flexibility</t>
-  </si>
-  <si>
-    <t>Sounds, Noise Levels Are Distracting or Uncomfortable</t>
-  </si>
-  <si>
-    <t>Handling and Moving Objects</t>
-  </si>
-  <si>
-    <t>Performing General Physical Activities</t>
   </si>
   <si>
     <t>Repairing and Maintaining Electronic Equipment</t>
@@ -582,11 +577,155 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -600,15 +739,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -616,9 +928,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -627,7 +1169,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,10 +1522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE00044A-DCEE-134A-9644-5AD7F083B6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
@@ -1004,23 +1589,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1028,7 +1613,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1036,7 +1621,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1044,7 +1629,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -1052,106 +1637,106 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1159,7 +1744,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1167,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1175,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1183,116 +1768,116 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
         <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
         <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
         <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -1300,98 +1885,98 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1399,20 +1984,20 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
         <v>72</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>68</v>
@@ -1420,154 +2005,154 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
         <v>75</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
         <v>78</v>
-      </c>
-      <c r="B63" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
         <v>81</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
         <v>83</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
         <v>86</v>
-      </c>
-      <c r="B69" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1575,52 +2160,52 @@
         <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
         <v>99</v>
-      </c>
-      <c r="B80" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
         <v>101</v>
-      </c>
-      <c r="B81" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
         <v>103</v>
-      </c>
-      <c r="B83" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
         <v>107</v>
@@ -1628,111 +2213,111 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" t="s">
         <v>108</v>
-      </c>
-      <c r="B86" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="B99" t="s">
         <v>121</v>
@@ -1740,18 +2325,18 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" t="s">
         <v>122</v>
-      </c>
-      <c r="B100" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1759,63 +2344,63 @@
         <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1823,7 +2408,7 @@
         <v>131</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1831,52 +2416,52 @@
         <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" t="s">
         <v>135</v>
-      </c>
-      <c r="B114" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
         <v>139</v>
@@ -1884,58 +2469,58 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" t="s">
         <v>144</v>
-      </c>
-      <c r="B124" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1943,15 +2528,15 @@
         <v>145</v>
       </c>
       <c r="B125" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1959,87 +2544,87 @@
         <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B131" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B133" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2047,316 +2632,316 @@
         <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B161" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B165" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s">
         <v>175</v>
-      </c>
-      <c r="B168" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="B176" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B177" t="s">
         <v>181</v>
@@ -2364,26 +2949,26 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B178" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B179" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2391,7 +2976,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2403,7 +2988,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>